--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_6_6.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_6_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1583214.812335323</v>
+        <v>-1586230.611985329</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8656875.781858983</v>
+        <v>8656875.781858986</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>173.0310041287607</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -668,13 +668,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>29.19972750443316</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -820,13 +820,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -865,16 +865,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>43.99240337009294</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>47.14167849255917</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -899,10 +899,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>344.2485549328989</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,10 +956,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>310.2076895021003</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1108,13 +1108,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>29.16584928708771</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>57.68157701938528</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>269.5715125579679</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>329.9807129031639</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>171.4162672644936</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>116.0621231825097</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1534,19 +1534,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>78.53455727340439</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>30.27693440363549</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206839</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1625,7 +1625,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1771,19 +1771,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>17.75171326570685</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>240.4429043384047</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2056,13 +2056,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>27.69690030288077</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>181.4487096095777</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2254,10 +2254,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>139.6430868570235</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2296,7 +2296,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2333,10 +2333,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873204</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292618</v>
+        <v>41.57692977292572</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881757</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851119</v>
+        <v>89.59687541851112</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247755</v>
+        <v>18.81721868247732</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734100478</v>
+        <v>0.1429098734096499</v>
       </c>
       <c r="S24" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T24" t="n">
         <v>190.7165703189231</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983802</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004746</v>
+        <v>88.93215267004722</v>
       </c>
       <c r="S25" t="n">
-        <v>189.769025331442</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>114.4746605491522</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>264.6171092507012</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2728,10 +2728,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2849,7 +2849,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2956,19 +2956,19 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002295</v>
       </c>
       <c r="H31" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808248</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H37" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,7 +3913,7 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
         <v>56.98118882652581</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,10 +4135,10 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E46" t="n">
         <v>122.1493151545295</v>
@@ -4147,7 +4147,7 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H46" t="n">
         <v>116.0100653541842</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4198,7 +4198,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y46" t="n">
         <v>194.3000058600551</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2072.529454785695</v>
+        <v>1760.906005007191</v>
       </c>
       <c r="C2" t="n">
-        <v>1703.566937845283</v>
+        <v>1391.943488066779</v>
       </c>
       <c r="D2" t="n">
-        <v>1345.301239238533</v>
+        <v>1033.677789460029</v>
       </c>
       <c r="E2" t="n">
-        <v>959.5129866402885</v>
+        <v>647.8895368617846</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>236.903632072177</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4331,10 +4331,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V2" t="n">
-        <v>2247.308246834948</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="W2" t="n">
-        <v>2247.308246834948</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="X2" t="n">
-        <v>2247.308246834948</v>
+        <v>2147.505845071313</v>
       </c>
       <c r="Y2" t="n">
-        <v>2247.308246834948</v>
+        <v>2147.505845071313</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4513,25 +4513,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>683.6922131255325</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="V4" t="n">
-        <v>680.5111271432434</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="W4" t="n">
-        <v>680.5111271432434</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="X4" t="n">
-        <v>680.5111271432434</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y4" t="n">
-        <v>680.5111271432434</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1233.603060210037</v>
+        <v>1349.006596680237</v>
       </c>
       <c r="C5" t="n">
-        <v>864.6405432696254</v>
+        <v>980.0440797398257</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4595,22 +4595,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W5" t="n">
-        <v>2383.80799051105</v>
+        <v>2125.745768720171</v>
       </c>
       <c r="X5" t="n">
-        <v>2010.34223224997</v>
+        <v>2125.745768720171</v>
       </c>
       <c r="Y5" t="n">
-        <v>1620.202900274159</v>
+        <v>1735.606436744359</v>
       </c>
     </row>
     <row r="6">
@@ -4656,10 +4656,10 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>517.0200655508536</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="C7" t="n">
-        <v>517.0200655508536</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="D7" t="n">
-        <v>517.0200655508536</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="E7" t="n">
-        <v>517.0200655508536</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="F7" t="n">
-        <v>517.0200655508536</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G7" t="n">
-        <v>348.0202652891861</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>698.6685303810933</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V7" t="n">
-        <v>698.6685303810933</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W7" t="n">
-        <v>698.6685303810933</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="X7" t="n">
-        <v>698.6685303810933</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="Y7" t="n">
-        <v>698.6685303810933</v>
+        <v>380.6911546495019</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1540.97540443929</v>
+        <v>1483.703156598057</v>
       </c>
       <c r="C8" t="n">
-        <v>1268.68094731003</v>
+        <v>1483.703156598057</v>
       </c>
       <c r="D8" t="n">
-        <v>1268.68094731003</v>
+        <v>1125.437457991306</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>1125.437457991306</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>714.451553201699</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4805,10 +4805,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2267.209817970484</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V8" t="n">
-        <v>2267.209817970484</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W8" t="n">
-        <v>1914.44116270037</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X8" t="n">
-        <v>1540.97540443929</v>
+        <v>1873.842488573869</v>
       </c>
       <c r="Y8" t="n">
-        <v>1540.97540443929</v>
+        <v>1483.703156598057</v>
       </c>
     </row>
     <row r="9">
@@ -4899,7 +4899,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>396.6060931634762</v>
+        <v>554.9812394948245</v>
       </c>
       <c r="C10" t="n">
-        <v>396.6060931634762</v>
+        <v>386.0450565669176</v>
       </c>
       <c r="D10" t="n">
-        <v>246.4894537511404</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="E10" t="n">
-        <v>246.4894537511404</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="F10" t="n">
-        <v>99.5995062532301</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="G10" t="n">
-        <v>99.5995062532301</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H10" t="n">
-        <v>99.5995062532301</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>396.6060931634762</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>396.6060931634762</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>396.6060931634762</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>396.6060931634762</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>396.6060931634762</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5045,13 +5045,13 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L11" t="n">
-        <v>1482.778354750621</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M11" t="n">
-        <v>2461.32865758045</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N11" t="n">
-        <v>3441.080929807096</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O11" t="n">
         <v>4075.973927750058</v>
@@ -5066,10 +5066,10 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U11" t="n">
         <v>4208.252829604874</v>
@@ -5118,13 +5118,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>951.7264155301116</v>
+        <v>492.7083461157126</v>
       </c>
       <c r="C13" t="n">
-        <v>951.7264155301116</v>
+        <v>492.7083461157126</v>
       </c>
       <c r="D13" t="n">
-        <v>801.6097761177758</v>
+        <v>342.5917067033769</v>
       </c>
       <c r="E13" t="n">
-        <v>653.6966825353827</v>
+        <v>342.5917067033769</v>
       </c>
       <c r="F13" t="n">
-        <v>506.8067350374723</v>
+        <v>342.5917067033769</v>
       </c>
       <c r="G13" t="n">
-        <v>339.1038984121913</v>
+        <v>174.8888700780958</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>174.8888700780958</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5203,46 +5203,46 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927004</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M13" t="n">
-        <v>1005.387693892249</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N13" t="n">
-        <v>1346.796070598114</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.125669518528</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P13" t="n">
-        <v>1878.733169952187</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104702</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.51300886223</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689056</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T13" t="n">
-        <v>1453.060509258582</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U13" t="n">
-        <v>1163.957642384225</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V13" t="n">
-        <v>1163.957642384225</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W13" t="n">
-        <v>1133.374880360351</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X13" t="n">
-        <v>1133.374880360351</v>
+        <v>895.1493900894825</v>
       </c>
       <c r="Y13" t="n">
-        <v>1133.374880360351</v>
+        <v>674.3568109459524</v>
       </c>
     </row>
     <row r="14">
@@ -5252,16 +5252,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
         <v>850.213983755162</v>
@@ -5270,28 +5270,28 @@
         <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>284.4401654074197</v>
       </c>
       <c r="K14" t="n">
-        <v>618.2595390972663</v>
+        <v>618.259539097266</v>
       </c>
       <c r="L14" t="n">
         <v>1482.778354750621</v>
       </c>
       <c r="M14" t="n">
-        <v>2461.32865758045</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N14" t="n">
-        <v>3441.080929807096</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750058</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P14" t="n">
         <v>4470.748294107237</v>
@@ -5309,19 +5309,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="15">
@@ -5331,34 +5331,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L15" t="n">
         <v>794.2006632320242</v>
@@ -5373,22 +5373,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q15" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5397,10 +5397,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="16">
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>578.4172407837245</v>
+        <v>824.3287722635405</v>
       </c>
       <c r="C16" t="n">
-        <v>409.4810578558177</v>
+        <v>655.3925893356336</v>
       </c>
       <c r="D16" t="n">
-        <v>409.4810578558177</v>
+        <v>655.3925893356336</v>
       </c>
       <c r="E16" t="n">
-        <v>409.4810578558177</v>
+        <v>507.4794957532405</v>
       </c>
       <c r="F16" t="n">
-        <v>409.4810578558177</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="G16" t="n">
-        <v>241.7782212305366</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M16" t="n">
         <v>1005.387693892251</v>
@@ -5449,37 +5449,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P16" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S16" t="n">
-        <v>1764.65758193153</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="T16" t="n">
-        <v>1542.890966501056</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="U16" t="n">
-        <v>1524.959943000342</v>
+        <v>1577.410141987874</v>
       </c>
       <c r="V16" t="n">
-        <v>1270.275454794455</v>
+        <v>1334.538521444031</v>
       </c>
       <c r="W16" t="n">
-        <v>980.8582847574944</v>
+        <v>1045.121351407071</v>
       </c>
       <c r="X16" t="n">
-        <v>980.8582847574944</v>
+        <v>1045.121351407071</v>
       </c>
       <c r="Y16" t="n">
-        <v>760.0657056139643</v>
+        <v>824.3287722635405</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
@@ -5516,28 +5516,28 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1236.699401366028</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M17" t="n">
-        <v>2215.249704195857</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N17" t="n">
-        <v>2762.028521254639</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S17" t="n">
         <v>4667.761053946815</v>
@@ -5546,19 +5546,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="18">
@@ -5583,10 +5583,10 @@
         <v>341.4333205763703</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.56103444839442</v>
+        <v>432.2000540015823</v>
       </c>
       <c r="C19" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D19" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E19" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F19" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G19" t="n">
         <v>95.56103444839442</v>
@@ -5704,19 +5704,19 @@
         <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>1163.957642384228</v>
+        <v>1425.083842285977</v>
       </c>
       <c r="V19" t="n">
-        <v>909.2731541783409</v>
+        <v>1170.39935408009</v>
       </c>
       <c r="W19" t="n">
-        <v>725.9916293201816</v>
+        <v>880.9821840431298</v>
       </c>
       <c r="X19" t="n">
-        <v>498.0020784221642</v>
+        <v>652.9926331451124</v>
       </c>
       <c r="Y19" t="n">
-        <v>277.2094992786341</v>
+        <v>432.2000540015823</v>
       </c>
     </row>
     <row r="20">
@@ -5741,13 +5741,13 @@
         <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J20" t="n">
         <v>451.8458144277729</v>
@@ -5765,22 +5765,22 @@
         <v>2637.914081542188</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
         <v>4208.252829604874</v>
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G21" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J21" t="n">
         <v>189.2383039390118</v>
@@ -5862,7 +5862,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5871,10 +5871,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>333.9403347179516</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C22" t="n">
-        <v>333.9403347179516</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D22" t="n">
-        <v>333.9403347179516</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E22" t="n">
-        <v>333.9403347179516</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F22" t="n">
-        <v>333.9403347179516</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G22" t="n">
-        <v>333.9403347179516</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H22" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J22" t="n">
         <v>140.68366689533</v>
@@ -5935,25 +5935,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.65758193153</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T22" t="n">
-        <v>1542.890966501056</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U22" t="n">
-        <v>1253.788099626699</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V22" t="n">
-        <v>1253.788099626699</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W22" t="n">
-        <v>964.3709295897388</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X22" t="n">
-        <v>736.3813786917215</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y22" t="n">
-        <v>515.5887995481913</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="23">
@@ -5978,40 +5978,40 @@
         <v>850.2139837551613</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001579</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089259</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277724</v>
+        <v>451.8458144277733</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563071</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1557.603359811479</v>
+        <v>1557.603359811483</v>
       </c>
       <c r="M23" t="n">
-        <v>2091.135264483402</v>
+        <v>2091.135264483409</v>
       </c>
       <c r="N23" t="n">
-        <v>2637.914081542183</v>
+        <v>2637.914081542192</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232734</v>
+        <v>3482.142110232729</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679679</v>
+        <v>4195.497197679676</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S23" t="n">
         <v>4667.761053946815</v>
@@ -6042,55 +6042,55 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.967878549486</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F24" t="n">
-        <v>341.433320576371</v>
+        <v>341.4333205763707</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468566</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390114</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K24" t="n">
-        <v>427.502502919358</v>
+        <v>427.5025029193597</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320226</v>
+        <v>794.2006632320257</v>
       </c>
       <c r="M24" t="n">
         <v>1241.476988454338</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008791</v>
+        <v>1715.000032008793</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.961311426851</v>
+        <v>2125.961311426848</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S24" t="n">
         <v>2464.520220635548</v>
@@ -6099,7 +6099,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6108,10 +6108,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95.56103444839442</v>
+        <v>192.886711630049</v>
       </c>
       <c r="C25" t="n">
-        <v>95.56103444839442</v>
+        <v>192.886711630049</v>
       </c>
       <c r="D25" t="n">
-        <v>95.56103444839442</v>
+        <v>192.886711630049</v>
       </c>
       <c r="E25" t="n">
-        <v>95.56103444839442</v>
+        <v>192.886711630049</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839442</v>
+        <v>192.886711630049</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839442</v>
+        <v>192.886711630049</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839442</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J25" t="n">
-        <v>140.6836668953298</v>
+        <v>140.6836668953301</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442058</v>
+        <v>344.6708498442068</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927015</v>
+        <v>661.2306482927033</v>
       </c>
       <c r="M25" t="n">
-        <v>1005.38769389225</v>
+        <v>1005.387693892253</v>
       </c>
       <c r="N25" t="n">
-        <v>1346.796070598114</v>
+        <v>1346.796070598118</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.125669518527</v>
+        <v>1646.125669518532</v>
       </c>
       <c r="P25" t="n">
-        <v>1878.733169952186</v>
+        <v>1878.733169952191</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104701</v>
+        <v>1956.343466104706</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862228</v>
+        <v>1866.513008862234</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.827124689055</v>
+        <v>1674.82712468906</v>
       </c>
       <c r="T25" t="n">
-        <v>1559.196154437386</v>
+        <v>1453.060509258587</v>
       </c>
       <c r="U25" t="n">
-        <v>1270.093287563029</v>
+        <v>1185.770499914444</v>
       </c>
       <c r="V25" t="n">
-        <v>1015.408799357142</v>
+        <v>931.086011708557</v>
       </c>
       <c r="W25" t="n">
-        <v>725.9916293201816</v>
+        <v>641.6688416715964</v>
       </c>
       <c r="X25" t="n">
-        <v>498.0020784221642</v>
+        <v>413.6792907735791</v>
       </c>
       <c r="Y25" t="n">
-        <v>277.2094992786341</v>
+        <v>192.886711630049</v>
       </c>
     </row>
     <row r="26">
@@ -6215,28 +6215,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6315,10 +6315,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951537</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
         <v>2319.799627685893</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6449,31 +6449,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1344.266747951538</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G31" t="n">
         <v>268.5553036345476</v>
@@ -6619,7 +6619,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K31" t="n">
         <v>483.825546038073</v>
@@ -6643,19 +6643,19 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T31" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W31" t="n">
         <v>1483.798285518751</v>
@@ -6698,7 +6698,7 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6777,22 +6777,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M33" t="n">
-        <v>1072.713683962606</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P33" t="n">
         <v>2319.799627685893</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6880,13 +6880,13 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U34" t="n">
         <v>1978.840049838286</v>
@@ -6917,28 +6917,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,10 +6947,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7026,10 +7026,10 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1896.176478190825</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P36" t="n">
         <v>2319.799627685893</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319331</v>
+        <v>926.9575315319319</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656811</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150016</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942648</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580114</v>
+        <v>411.221455958011</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345472</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384015</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,28 +7117,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="38">
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,13 +7184,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7260,13 +7260,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1268.578514636218</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1896.176478190825</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P39" t="n">
         <v>2319.799627685893</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656814</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345477</v>
@@ -7327,16 +7327,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380731</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7357,25 +7357,25 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="41">
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7418,10 +7418,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7500,13 +7500,13 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7567,10 +7567,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954149</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
         <v>898.2659412311325</v>
@@ -7585,7 +7585,7 @@
         <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q43" t="n">
         <v>2639.297491717215</v>
@@ -7603,7 +7603,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
@@ -7622,46 +7622,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7725,22 +7725,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>923.0670414349511</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P45" t="n">
         <v>2319.799627685893</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954149</v>
+        <v>198.0944824954144</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380724</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311318</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,10 +7828,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8304,13 +8304,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8547,10 +8547,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8693,7 +8693,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
@@ -8702,7 +8702,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8939,7 +8939,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>133.2530576400255</v>
+        <v>133.2530576400276</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -9164,19 +9164,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>219.3344627260163</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9413,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>344.7025836476838</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9650,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>344.7025836476912</v>
+        <v>344.7025836476764</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -10115,7 +10115,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>-7.199131888556365e-14</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10598,7 +10598,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>-1.364242052659392e-12</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11066,13 +11066,13 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>-1.591615728102624e-12</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>-1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11300,7 +11300,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>209.7028375347198</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22559,10 +22559,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>384.5844425163618</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22592,25 +22592,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>189.0741884334853</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>10.09776245505832</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>17.8178631364337</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004381</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>256.2460639329555</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>268.4601249399061</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>11.69473898542327</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23902,7 +23902,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -23944,13 +23944,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>258.5149379027321</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>105.0742887270133</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>5.111928057297291</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24382,7 +24382,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983817</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,10 +24415,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>105.0742887270169</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>21.59472895491172</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>-5.044853423896711e-13</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1217993.093984945</v>
+        <v>1217993.093984944</v>
       </c>
     </row>
     <row r="3">
@@ -26314,7 +26314,7 @@
         <v>109204.2784474812</v>
       </c>
       <c r="C2" t="n">
-        <v>123156.2654796424</v>
+        <v>123156.2654796425</v>
       </c>
       <c r="D2" t="n">
         <v>123156.2654796425</v>
@@ -26326,7 +26326,7 @@
         <v>119124.536066095</v>
       </c>
       <c r="G2" t="n">
-        <v>119124.5360660949</v>
+        <v>119124.536066095</v>
       </c>
       <c r="H2" t="n">
         <v>119124.536066095</v>
@@ -26338,19 +26338,19 @@
         <v>121071.9899535009</v>
       </c>
       <c r="K2" t="n">
-        <v>123156.2654796424</v>
+        <v>123156.2654796425</v>
       </c>
       <c r="L2" t="n">
         <v>123156.2654796425</v>
       </c>
       <c r="M2" t="n">
-        <v>123156.2654796425</v>
+        <v>123156.2654796424</v>
       </c>
       <c r="N2" t="n">
-        <v>123156.2654796425</v>
+        <v>123156.2654796426</v>
       </c>
       <c r="O2" t="n">
-        <v>123156.2654796425</v>
+        <v>123156.2654796424</v>
       </c>
       <c r="P2" t="n">
         <v>123156.2654796425</v>
@@ -26384,13 +26384,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.026931840897305e-09</v>
       </c>
       <c r="J3" t="n">
-        <v>376527.1335735928</v>
+        <v>376527.1335735904</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.71799363178</v>
+        <v>19427.71799363177</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>19427.71799363177</v>
+        <v>19427.71799363175</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139117.6974810172</v>
+        <v>139117.6974810171</v>
       </c>
       <c r="C4" t="n">
         <v>192206.5963924297</v>
@@ -26424,40 +26424,40 @@
         <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
-        <v>21619.60799709183</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="F4" t="n">
-        <v>21619.60799709184</v>
+        <v>21619.6079970919</v>
       </c>
       <c r="G4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="H4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="I4" t="n">
-        <v>21619.60799709196</v>
+        <v>21619.60799709178</v>
       </c>
       <c r="J4" t="n">
         <v>4457.648636658128</v>
       </c>
       <c r="K4" t="n">
-        <v>12448.5078997516</v>
+        <v>12448.50789975159</v>
       </c>
       <c r="L4" t="n">
-        <v>12448.5078997516</v>
+        <v>12448.50789975159</v>
       </c>
       <c r="M4" t="n">
-        <v>12448.50789975162</v>
+        <v>12448.50789975157</v>
       </c>
       <c r="N4" t="n">
-        <v>12448.5078997516</v>
+        <v>12448.50789975159</v>
       </c>
       <c r="O4" t="n">
         <v>12448.50789975158</v>
       </c>
       <c r="P4" t="n">
-        <v>12448.50789975159</v>
+        <v>12448.50789975157</v>
       </c>
     </row>
     <row r="5">
@@ -26476,19 +26476,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371361</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="J5" t="n">
         <v>101122.5298239071</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-702740.37631149</v>
+        <v>-702972.9094286925</v>
       </c>
       <c r="C6" t="n">
         <v>-151909.4089761967</v>
@@ -26528,25 +26528,25 @@
         <v>-151909.4089761967</v>
       </c>
       <c r="E6" t="n">
-        <v>-726256.0041781171</v>
+        <v>-726323.1996683429</v>
       </c>
       <c r="F6" t="n">
-        <v>1121.409815289488</v>
+        <v>1054.214325063608</v>
       </c>
       <c r="G6" t="n">
-        <v>1121.4098152894</v>
+        <v>1054.214325063651</v>
       </c>
       <c r="H6" t="n">
-        <v>1121.409815289429</v>
+        <v>1054.214325063666</v>
       </c>
       <c r="I6" t="n">
-        <v>1121.409815290594</v>
+        <v>1054.214325062706</v>
       </c>
       <c r="J6" t="n">
-        <v>-361035.3220806571</v>
+        <v>-361070.0600060905</v>
       </c>
       <c r="K6" t="n">
-        <v>-11884.0762676564</v>
+        <v>-11884.07626765623</v>
       </c>
       <c r="L6" t="n">
         <v>7543.641725975496</v>
@@ -26555,13 +26555,13 @@
         <v>-122098.6731129693</v>
       </c>
       <c r="N6" t="n">
-        <v>7543.641725975496</v>
+        <v>7543.641725975584</v>
       </c>
       <c r="O6" t="n">
-        <v>7543.641725975496</v>
+        <v>7543.641725975467</v>
       </c>
       <c r="P6" t="n">
-        <v>-11884.07626765626</v>
+        <v>-11884.07626765623</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N2" t="n">
+        <v>24.28464749203969</v>
+      </c>
+      <c r="O2" t="n">
         <v>24.28464749203971</v>
       </c>
-      <c r="O2" t="n">
-        <v>24.28464749203972</v>
-      </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="3">
@@ -26738,10 +26738,10 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26756,7 +26756,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
-        <v>1089.776700593297</v>
+        <v>1089.7767005933</v>
       </c>
       <c r="J3" t="n">
         <v>1367.975500341674</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="3">
@@ -26978,10 +26978,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-2.10680046739679e-13</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="J3" t="n">
-        <v>278.1987997483773</v>
+        <v>278.1987997483741</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>652.4826302492738</v>
+        <v>652.4826302492741</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -27388,7 +27388,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27433,13 +27433,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>62.14997907480398</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>339.1432062623547</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27540,13 +27540,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27585,16 +27585,16 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>168.153135579926</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>204.9959648312689</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27619,10 +27619,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>10.4344866877841</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27676,10 +27676,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>39.03327921531269</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27792,10 +27792,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,13 +27828,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>257.11602495489</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>228.8414213172057</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27853,22 +27853,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>95.70137921303962</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>83.80345711763107</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>8.415712917443727</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28020,7 +28020,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,7 +28029,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>170.219751059468</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28138,7 +28138,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-3.774407299222456e-13</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28293,7 +28293,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>3.534950110406498e-12</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -28330,7 +28330,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-1.849246296846667e-13</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -29569,7 +29569,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="35">
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
   </sheetData>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H15" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q16" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32561,7 +32561,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
         <v>557.708647897025</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681592</v>
+        <v>4.381011861681603</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844661</v>
+        <v>44.86703772844673</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974797</v>
+        <v>168.8989597974802</v>
       </c>
       <c r="J23" t="n">
-        <v>371.8329054953983</v>
+        <v>371.8329054953993</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003801</v>
+        <v>557.2811376003817</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623184</v>
+        <v>691.3565293623202</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574983</v>
+        <v>769.2673490575004</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095012</v>
+        <v>781.7148990095034</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099048</v>
+        <v>738.1512123099068</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746404</v>
+        <v>629.9949819746422</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781683</v>
+        <v>473.0999946781696</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563565</v>
+        <v>275.1987363563572</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806937</v>
+        <v>99.83230779806964</v>
       </c>
       <c r="T23" t="n">
-        <v>19.17787942451118</v>
+        <v>19.17787942451123</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3504809489345272</v>
+        <v>0.3504809489345282</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.344047997502563</v>
+        <v>2.344047997502569</v>
       </c>
       <c r="H24" t="n">
-        <v>22.63856881798528</v>
+        <v>22.63856881798534</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752245</v>
+        <v>80.70516131752268</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026435</v>
+        <v>221.4611312026441</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353151</v>
+        <v>378.5123470353162</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138789</v>
+        <v>508.9565619138803</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233466</v>
+        <v>593.9283018233434</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837916</v>
+        <v>609.6478166837932</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970301</v>
+        <v>557.7086478970257</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002921</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987482</v>
+        <v>299.215670698749</v>
       </c>
       <c r="R24" t="n">
-        <v>145.5365940905539</v>
+        <v>145.5365940905543</v>
       </c>
       <c r="S24" t="n">
-        <v>43.5396634623831</v>
+        <v>43.53966346238322</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898485</v>
+        <v>9.44815837589851</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1542136840462213</v>
+        <v>0.1542136840462217</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430535</v>
+        <v>1.96517109943054</v>
       </c>
       <c r="H25" t="n">
-        <v>17.47215759311877</v>
+        <v>17.47215759311882</v>
       </c>
       <c r="I25" t="n">
-        <v>59.0980545174201</v>
+        <v>59.09805451742027</v>
       </c>
       <c r="J25" t="n">
-        <v>138.9375967297388</v>
+        <v>138.9375967297392</v>
       </c>
       <c r="K25" t="n">
-        <v>228.3171513702021</v>
+        <v>228.3171513702027</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098816</v>
+        <v>292.1673469098824</v>
       </c>
       <c r="M25" t="n">
-        <v>308.0495024316428</v>
+        <v>308.0495024316436</v>
       </c>
       <c r="N25" t="n">
-        <v>300.724773788311</v>
+        <v>300.7247737883119</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023085997</v>
+        <v>277.7680023086004</v>
       </c>
       <c r="P25" t="n">
-        <v>237.6785118802166</v>
+        <v>237.6785118802172</v>
       </c>
       <c r="Q25" t="n">
-        <v>164.5562817895878</v>
+        <v>164.5562817895882</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712203</v>
+        <v>88.36123870712227</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553031</v>
+        <v>34.2475727055304</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112283</v>
+        <v>8.396640152112306</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780293</v>
+        <v>0.1071911508780296</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33026,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>405.637736314577</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>416.4300581532626</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>366.8427442359099</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>405.6377363145776</v>
+        <v>510.8679233250717</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33737,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>359.7096985496635</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>370.9642309107744</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,37 +33974,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>339.9772972286971</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>370.9642309107744</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34220,7 +34220,7 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>595.327537312171</v>
+        <v>359.7096985496632</v>
       </c>
       <c r="O42" t="n">
         <v>142.5962444444444</v>
@@ -34229,7 +34229,7 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>556.7959610899863</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>370.9642309107744</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35413,7 +35413,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427826</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M11" t="n">
         <v>988.4346493230593</v>
@@ -35422,7 +35422,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P11" t="n">
         <v>398.7619862193719</v>
@@ -35571,7 +35571,7 @@
         <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.757372170196</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
         <v>347.6333793934838</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427823</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230593</v>
+        <v>988.4346493230589</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248953</v>
       </c>
       <c r="O14" t="n">
-        <v>641.3060585282446</v>
+        <v>641.3060585282465</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,19 +35884,19 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>727.3874636142355</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P17" t="n">
         <v>720.5606943908545</v>
@@ -36133,7 +36133,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>852.7555845359029</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P20" t="n">
         <v>720.5606943908545</v>
@@ -36209,7 +36209,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
         <v>415.1124034525806</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407858</v>
+        <v>359.8836161407868</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265643</v>
+        <v>661.3366991265659</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923311</v>
+        <v>455.590114392333</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302256</v>
+        <v>538.9211158302277</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129103</v>
+        <v>552.3018354129124</v>
       </c>
       <c r="O23" t="n">
-        <v>852.7555845359093</v>
+        <v>852.7555845358964</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908535</v>
+        <v>720.5606943908554</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636235</v>
+        <v>463.1092954636248</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152068</v>
+        <v>125.3296184152076</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597679</v>
+        <v>94.62350453597739</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609562</v>
+        <v>240.6709080609572</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340047</v>
+        <v>370.4021821340061</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013283</v>
+        <v>451.794267901325</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004583</v>
+        <v>478.3061046004599</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525857</v>
+        <v>415.1124034525812</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859618</v>
+        <v>313.635950985963</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127267</v>
+        <v>159.2338966127275</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306603</v>
+        <v>45.57841661306639</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443192</v>
+        <v>206.0476595443199</v>
       </c>
       <c r="L25" t="n">
-        <v>319.7573721701978</v>
+        <v>319.7573721701986</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934834</v>
+        <v>347.6333793934842</v>
       </c>
       <c r="N25" t="n">
-        <v>344.8569461675396</v>
+        <v>344.8569461675405</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226394</v>
+        <v>302.3531302226401</v>
       </c>
       <c r="P25" t="n">
-        <v>234.9570711451101</v>
+        <v>234.9570711451107</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.3942385378934</v>
+        <v>78.39423853789386</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,22 +36677,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>274.2960242312436</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>274.2960242312443</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>235.5010321525766</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36996,13 +36996,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>274.2960242312443</v>
+        <v>379.5262112417385</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37233,13 +37233,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,22 +37388,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>228.3679864663302</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>228.3679864663299</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,19 +37464,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,22 +37625,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>197.8432633066788</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>228.3679864663299</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,19 +37701,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
@@ -37786,13 +37786,13 @@
         <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243148</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683813</v>
@@ -37868,7 +37868,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>463.9858252288377</v>
+        <v>228.3679864663299</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37877,7 +37877,7 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37947,7 +37947,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
         <v>397.5465471980852</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>425.454249006653</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>228.3679864663299</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,25 +38175,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.910780481947</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
